--- a/biology/Botanique/Liste_des_forêts_normandes/Liste_des_forêts_normandes.xlsx
+++ b/biology/Botanique/Liste_des_forêts_normandes/Liste_des_forêts_normandes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_normandes</t>
+          <t>Liste_des_forêts_normandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nota : certaines forêts, de taille moyenne portent parfois le nom de « bois ».
 Forêt d'Andaine
 Forêt de Bellême
-Forêt de Bizy[1]
+Forêt de Bizy
 Forêt de Bord-Louviers
 Forêt de Breteuil
 Forêt de Brotonne
@@ -496,10 +508,10 @@
 Forêt d'Eawy
 Forêt d'Écouves
 Forêt d'Eu
-Forêt d'Évreux (forêt de protection)[2]
+Forêt d'Évreux (forêt de protection)
 Forêt de Gouffern
 Forêt de Grimbosq
-Forêt de Longboël[3]
+Forêt de Longboël
 Forêt de la Lande Pourrie
 Forêt de la Londe-Rouvray
 Forêt de Longny
@@ -508,14 +520,14 @@
 Forêt de Montfort
 Forêt de Multonne
 Forêt du Perche
-Forêt de Réno-Valdieu [1]
+Forêt de Réno-Valdieu 
 Forêt de Roumare
-Forêt de Saint-Gatien [2]
+Forêt de Saint-Gatien 
 Forêt de Saint-Sever
 Forêt du Trait-Maulévrier
 Forêt de Valcongrain
-Forêt de Vernon et des Andelys[4]
-Forêt verte[5]</t>
+Forêt de Vernon et des Andelys
+Forêt verte</t>
         </is>
       </c>
     </row>
@@ -525,7 +537,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_for%C3%AAts_normandes</t>
+          <t>Liste_des_forêts_normandes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -543,7 +555,9 @@
           <t>Liste des forêts disparues</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Forêt d'Arélaune
 Forêt d'Avranchin
